--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DDCC QR Format Cod" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DDCC QR Format C" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T16:26:01+00:00</t>
+    <t>2021-11-11T22:15:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization (WHO)</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -236,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,20 +342,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +385,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
+++ b/refs/heads/main/ValueSet-DDCC-QR-Format-ValueSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
